--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251001_170359.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251001_170359.xlsx
@@ -9005,7 +9005,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
